--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_2_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_2_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>production_rate</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Sigmoid</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -167,6 +167,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -176,6 +177,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -183,6 +185,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -231,6 +238,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -807,7 +815,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1162,7 +1170,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1262,7 +1270,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1362,7 +1370,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1462,15 +1470,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>8.4331063200504108E-4</v>
@@ -1478,7 +1486,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0.33424659770744269</v>
@@ -1486,7 +1494,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1494,7 +1502,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>261</v>
@@ -1502,18 +1510,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,10 +1590,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1708,7 +1716,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1952,7 +1960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
@@ -1960,7 +1968,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2249,7 +2257,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2371,7 +2379,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2495,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2504,27 +2512,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2532,7 +2528,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2540,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2548,7 +2544,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2556,7 +2552,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2564,7 +2560,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2572,99 +2568,96 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2750,10 +2743,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2812,7 +2805,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_2_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_2_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -78,9 +83,6 @@
   </si>
   <si>
     <t>fix_b</t>
-  </si>
-  <si>
-    <t>Sheet</t>
   </si>
   <si>
     <t>dcin5</t>
@@ -155,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -213,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -221,7 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -242,7 +243,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,6 +318,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -643,31 +647,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -676,7 +680,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -685,7 +689,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -695,7 +699,7 @@
       <c r="D4" s="5"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -705,94 +709,94 @@
       <c r="D5" s="5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="4"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="G22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -804,18 +808,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -881,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -949,7 +953,7 @@
         <v>-1.4306881675515821</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1021,7 @@
         <v>-0.7358649519369489</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1159,18 +1163,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1185,7 +1189,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1259,18 +1263,18 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1285,7 +1289,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1359,18 +1363,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1385,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>0.45116763142101562</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1459,72 +1463,72 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
       </c>
       <c r="B2">
         <v>8.4331063200504108E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.33424659770744269</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>8.0999063636369461E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>1.0099087842707543E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1561,7 @@
         <v>1.1418383383765488E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1574,29 +1578,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1612,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1628,71 +1632,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -1705,246 +1709,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>0.8</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="14">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>1.2</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>1.2</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>1.2</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>1.6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="19">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="20">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -1957,266 +1961,266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8">
         <v>0.4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>0.4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>0.4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>0.8</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>0.8</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>0.8</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>1.2</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>1.2</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>1.2</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>1.6</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>1.6</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -2228,36 +2232,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2272,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2323,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2349,37 +2353,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.87890625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.46875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2411,85 +2415,85 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>0.10292276543278124</v>
       </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
         <v>0.1108920147899017</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
         <v>0.43412222889076013</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>0.28122076702034365</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
         <v>-0.32423254717519595</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>0.14288019968408103</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2500,19 +2504,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2536,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2560,7 +2564,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2568,59 +2572,59 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>39</v>
-      </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.4</v>
       </c>
       <c r="C14">
@@ -2633,7 +2637,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2641,85 +2645,74 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D16">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E16">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F16">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G16">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H16">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I16">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J16">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K16">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O16">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P16">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q16">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R16">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S16">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T16">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U16">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V16">
         <v>2</v>
       </c>
     </row>
@@ -2732,24 +2725,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2757,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2765,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2773,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2781,10 +2774,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
@@ -2794,18 +2787,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2871,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2939,7 +2932,7 @@
         <v>-1.4306881675515821</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3007,7 +3000,7 @@
         <v>-0.7358649519369489</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3075,7 +3068,7 @@
         <v>0.55903330247304028</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_2_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_2_output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -893,64 +893,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.10050512926356203</v>
+        <v>-0.100505129263562</v>
       </c>
       <c r="D2">
-        <v>-0.19834405788669912</v>
+        <v>-0.19834405788669901</v>
       </c>
       <c r="E2">
-        <v>-0.29340906240385961</v>
+        <v>-0.29340906240386</v>
       </c>
       <c r="F2">
-        <v>-0.38560008567108428</v>
+        <v>-0.385600085671084</v>
       </c>
       <c r="G2">
         <v>-0.47482351698355801</v>
       </c>
       <c r="H2">
-        <v>-0.56099644945406291</v>
+        <v>-0.56099644945406302</v>
       </c>
       <c r="I2">
-        <v>-0.64404530869544718</v>
+        <v>-0.64404530869544696</v>
       </c>
       <c r="J2">
-        <v>-0.72390971330379306</v>
+        <v>-0.72390971330379295</v>
       </c>
       <c r="K2">
-        <v>-0.80054100195532374</v>
+        <v>-0.80054100195532396</v>
       </c>
       <c r="L2">
-        <v>-0.87390553138284532</v>
+        <v>-0.87390553138284499</v>
       </c>
       <c r="M2">
-        <v>-0.94398296526172532</v>
+        <v>-0.94398296526172498</v>
       </c>
       <c r="N2">
-        <v>-1.0107688846119385</v>
+        <v>-1.01076888461194</v>
       </c>
       <c r="O2">
-        <v>-1.0742727525413274</v>
+        <v>-1.07427275254133</v>
       </c>
       <c r="P2">
-        <v>-1.1345197819982227</v>
+        <v>-1.13451978199822</v>
       </c>
       <c r="Q2">
-        <v>-1.191548563137357</v>
+        <v>-1.1915485631373599</v>
       </c>
       <c r="R2">
-        <v>-1.2454122172762241</v>
+        <v>-1.2454122172762201</v>
       </c>
       <c r="S2">
-        <v>-1.2961757499725359</v>
+        <v>-1.2961757499725399</v>
       </c>
       <c r="T2">
-        <v>-1.343916597329778</v>
+        <v>-1.34391659732978</v>
       </c>
       <c r="U2">
-        <v>-1.3887218280870377</v>
+        <v>-1.3887218280870399</v>
       </c>
       <c r="V2">
-        <v>-1.4306881675515821</v>
+        <v>-1.4306881675515799</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -961,52 +961,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.2563430880209492E-2</v>
+        <v>-6.2563430880209506E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12194219603223373</v>
+        <v>-0.121942196032234</v>
       </c>
       <c r="E3">
-        <v>-0.17817484000902054</v>
+        <v>-0.17817484000902101</v>
       </c>
       <c r="F3">
-        <v>-0.23131360178487614</v>
+        <v>-0.23131360178487601</v>
       </c>
       <c r="G3">
-        <v>-0.28142203428009183</v>
+        <v>-0.28142203428009199</v>
       </c>
       <c r="H3">
-        <v>-0.32857550865153023</v>
+        <v>-0.32857550865153001</v>
       </c>
       <c r="I3">
-        <v>-0.37285857199792677</v>
+        <v>-0.37285857199792699</v>
       </c>
       <c r="J3">
-        <v>-0.4143650337687057</v>
+        <v>-0.41436503376870598</v>
       </c>
       <c r="K3">
-        <v>-0.45319532677882152</v>
+        <v>-0.45319532677882202</v>
       </c>
       <c r="L3">
-        <v>-0.48945634031588009</v>
+        <v>-0.48945634031587998</v>
       </c>
       <c r="M3">
-        <v>-0.52325892402564422</v>
+        <v>-0.523258924025644</v>
       </c>
       <c r="N3">
         <v>-0.55471761946489395</v>
       </c>
       <c r="O3">
-        <v>-0.58394841907113948</v>
+        <v>-0.58394841907113904</v>
       </c>
       <c r="P3">
-        <v>-0.6110685147150231</v>
+        <v>-0.61106851471502299</v>
       </c>
       <c r="Q3">
-        <v>-0.63619438324557942</v>
+        <v>-0.63619438324557898</v>
       </c>
       <c r="R3">
-        <v>-0.65944162872269385</v>
+        <v>-0.65944162872269396</v>
       </c>
       <c r="S3">
         <v>-0.68092342328542799</v>
@@ -1015,10 +1015,10 @@
         <v>-0.70075047952230696</v>
       </c>
       <c r="U3">
-        <v>-0.71902983911097706</v>
+        <v>-0.71902983911097695</v>
       </c>
       <c r="V3">
-        <v>-0.7358649519369489</v>
+        <v>-0.73586495193694901</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1097,64 +1097,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-4.7022146758660094E-2</v>
+        <v>-4.7022146758660101E-2</v>
       </c>
       <c r="D5">
-        <v>-9.1625362398053536E-2</v>
+        <v>-9.1625362398053495E-2</v>
       </c>
       <c r="E5">
-        <v>-0.13386811362525997</v>
+        <v>-0.13386811362525999</v>
       </c>
       <c r="F5">
         <v>-0.17381454554897499</v>
       </c>
       <c r="G5">
-        <v>-0.21153316074412534</v>
+        <v>-0.21153316074412501</v>
       </c>
       <c r="H5">
-        <v>-0.24709687599617092</v>
+        <v>-0.247096875996171</v>
       </c>
       <c r="I5">
-        <v>-0.28058166705152682</v>
+        <v>-0.28058166705152698</v>
       </c>
       <c r="J5">
-        <v>-0.31206651134776958</v>
+        <v>-0.31206651134777003</v>
       </c>
       <c r="K5">
-        <v>-0.34163211252827186</v>
+        <v>-0.34163211252827203</v>
       </c>
       <c r="L5">
-        <v>-0.36936079514529135</v>
+        <v>-0.36936079514529102</v>
       </c>
       <c r="M5">
-        <v>-0.39533535331757413</v>
+        <v>-0.39533535331757402</v>
       </c>
       <c r="N5">
-        <v>-0.41963894833299137</v>
+        <v>-0.41963894833299098</v>
       </c>
       <c r="O5">
-        <v>-0.44235410995155416</v>
+        <v>-0.442354109951554</v>
       </c>
       <c r="P5">
-        <v>-0.46356267092468906</v>
+        <v>-0.463562670924689</v>
       </c>
       <c r="Q5">
-        <v>-0.48334493337696027</v>
+        <v>-0.48334493337696</v>
       </c>
       <c r="R5">
-        <v>-0.50177965841211214</v>
+        <v>-0.50177965841211203</v>
       </c>
       <c r="S5">
-        <v>-0.51894339617907326</v>
+        <v>-0.51894339617907304</v>
       </c>
       <c r="T5">
-        <v>-0.53491053581716475</v>
+        <v>-0.53491053581716497</v>
       </c>
       <c r="U5">
-        <v>-0.54975278752565537</v>
+        <v>-0.54975278752565504</v>
       </c>
       <c r="V5">
-        <v>-0.56353927517244506</v>
+        <v>-0.56353927517244495</v>
       </c>
     </row>
   </sheetData>
@@ -1194,10 +1194,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.35873611648520443</v>
+        <v>0.35873611648520398</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.22186346654710765</v>
+        <v>0.22186346654710801</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.71097062489047824</v>
+        <v>0.71097062489047802</v>
       </c>
       <c r="E4">
-        <v>0.45116763142101562</v>
+        <v>0.45116763142101601</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.80309601773064054</v>
+        <v>-0.80309601773064099</v>
       </c>
       <c r="E5">
-        <v>0.68816416093215038</v>
+        <v>0.68816416093215005</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1485,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>8.4331063200504108E-4</v>
+        <v>8.4331063200504097E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.33424659770744269</v>
+        <v>0.33424659770744303</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1501,7 +1501,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639586E-33</v>
+        <v>1.2133358649639599E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1533,10 +1533,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>4.0499531818184731E-4</v>
+        <v>4.0499531818184698E-4</v>
       </c>
       <c r="C8">
-        <v>8.0999063636369461E-4</v>
+        <v>8.0999063636369504E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1544,10 +1544,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>5.0495439213537715E-5</v>
+        <v>5.0495439213537702E-5</v>
       </c>
       <c r="C9">
-        <v>1.0099087842707543E-4</v>
+        <v>1.00990878427075E-4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.1418383383765488E-3</v>
+        <v>1.1418383383765499E-3</v>
       </c>
       <c r="C10">
-        <v>1.1418383383765488E-3</v>
+        <v>1.1418383383765499E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1566,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>8.7606418590646207E-4</v>
+        <v>8.7606418590646196E-4</v>
       </c>
       <c r="C11">
-        <v>6.0429622140810756E-3</v>
+        <v>6.0429622140810799E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1765,40 +1765,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1806,40 +1806,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="10">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="11">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1888,40 +1888,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2017,40 +2017,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2058,40 +2058,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2140,40 +2140,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2420,7 +2420,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="22">
-        <v>0.10292276543278124</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="22">
-        <v>0.1108920147899017</v>
+        <v>0.111</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="22">
-        <v>0.43412222889076013</v>
+        <v>0.434</v>
       </c>
       <c r="E4" s="22">
-        <v>0.28122076702034365</v>
+        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2477,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <v>-0.32423254717519595</v>
+        <v>-0.32400000000000001</v>
       </c>
       <c r="E5" s="22">
-        <v>0.14288019968408103</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2662,7 +2662,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2671,10 +2671,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2689,13 +2689,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2704,13 +2704,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2872,64 +2872,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.10050512926356203</v>
+        <v>-0.100505129263562</v>
       </c>
       <c r="D2">
-        <v>-0.19834405788669912</v>
+        <v>-0.19834405788669901</v>
       </c>
       <c r="E2">
-        <v>-0.29340906240385961</v>
+        <v>-0.29340906240386</v>
       </c>
       <c r="F2">
-        <v>-0.38560008567108428</v>
+        <v>-0.385600085671084</v>
       </c>
       <c r="G2">
         <v>-0.47482351698355801</v>
       </c>
       <c r="H2">
-        <v>-0.56099644945406291</v>
+        <v>-0.56099644945406302</v>
       </c>
       <c r="I2">
-        <v>-0.64404530869544718</v>
+        <v>-0.64404530869544696</v>
       </c>
       <c r="J2">
-        <v>-0.72390971330379306</v>
+        <v>-0.72390971330379295</v>
       </c>
       <c r="K2">
-        <v>-0.80054100195532374</v>
+        <v>-0.80054100195532396</v>
       </c>
       <c r="L2">
-        <v>-0.87390553138284532</v>
+        <v>-0.87390553138284499</v>
       </c>
       <c r="M2">
-        <v>-0.94398296526172532</v>
+        <v>-0.94398296526172498</v>
       </c>
       <c r="N2">
-        <v>-1.0107688846119385</v>
+        <v>-1.01076888461194</v>
       </c>
       <c r="O2">
-        <v>-1.0742727525413274</v>
+        <v>-1.07427275254133</v>
       </c>
       <c r="P2">
-        <v>-1.1345197819982227</v>
+        <v>-1.13451978199822</v>
       </c>
       <c r="Q2">
-        <v>-1.191548563137357</v>
+        <v>-1.1915485631373599</v>
       </c>
       <c r="R2">
-        <v>-1.2454122172762241</v>
+        <v>-1.2454122172762201</v>
       </c>
       <c r="S2">
-        <v>-1.2961757499725359</v>
+        <v>-1.2961757499725399</v>
       </c>
       <c r="T2">
-        <v>-1.343916597329778</v>
+        <v>-1.34391659732978</v>
       </c>
       <c r="U2">
-        <v>-1.3887218280870377</v>
+        <v>-1.3887218280870399</v>
       </c>
       <c r="V2">
-        <v>-1.4306881675515821</v>
+        <v>-1.4306881675515799</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2940,52 +2940,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.2563430880209492E-2</v>
+        <v>-6.2563430880209506E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12194219603223373</v>
+        <v>-0.121942196032234</v>
       </c>
       <c r="E3">
-        <v>-0.17817484000902054</v>
+        <v>-0.17817484000902101</v>
       </c>
       <c r="F3">
-        <v>-0.23131360178487614</v>
+        <v>-0.23131360178487601</v>
       </c>
       <c r="G3">
-        <v>-0.28142203428009183</v>
+        <v>-0.28142203428009199</v>
       </c>
       <c r="H3">
-        <v>-0.32857550865153023</v>
+        <v>-0.32857550865153001</v>
       </c>
       <c r="I3">
-        <v>-0.37285857199792677</v>
+        <v>-0.37285857199792699</v>
       </c>
       <c r="J3">
-        <v>-0.4143650337687057</v>
+        <v>-0.41436503376870598</v>
       </c>
       <c r="K3">
-        <v>-0.45319532677882152</v>
+        <v>-0.45319532677882202</v>
       </c>
       <c r="L3">
-        <v>-0.48945634031588009</v>
+        <v>-0.48945634031587998</v>
       </c>
       <c r="M3">
-        <v>-0.52325892402564422</v>
+        <v>-0.523258924025644</v>
       </c>
       <c r="N3">
         <v>-0.55471761946489395</v>
       </c>
       <c r="O3">
-        <v>-0.58394841907113948</v>
+        <v>-0.58394841907113904</v>
       </c>
       <c r="P3">
-        <v>-0.6110685147150231</v>
+        <v>-0.61106851471502299</v>
       </c>
       <c r="Q3">
-        <v>-0.63619438324557942</v>
+        <v>-0.63619438324557898</v>
       </c>
       <c r="R3">
-        <v>-0.65944162872269385</v>
+        <v>-0.65944162872269396</v>
       </c>
       <c r="S3">
         <v>-0.68092342328542799</v>
@@ -2994,10 +2994,10 @@
         <v>-0.70075047952230696</v>
       </c>
       <c r="U3">
-        <v>-0.71902983911097706</v>
+        <v>-0.71902983911097695</v>
       </c>
       <c r="V3">
-        <v>-0.7358649519369489</v>
+        <v>-0.73586495193694901</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -3008,64 +3008,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.0438086846898229E-2</v>
+        <v>7.0438086846898201E-2</v>
       </c>
       <c r="D4">
-        <v>0.13186262681347771</v>
+        <v>0.13186262681347799</v>
       </c>
       <c r="E4">
-        <v>0.18570768338914456</v>
+        <v>0.18570768338914501</v>
       </c>
       <c r="F4">
-        <v>0.23311414497852756</v>
+        <v>0.233114144978528</v>
       </c>
       <c r="G4">
-        <v>0.27500356558159122</v>
+        <v>0.275003565581591</v>
       </c>
       <c r="H4">
-        <v>0.31213133058944742</v>
+        <v>0.31213133058944698</v>
       </c>
       <c r="I4">
-        <v>0.34512336498950824</v>
+        <v>0.34512336498950802</v>
       </c>
       <c r="J4">
-        <v>0.37450431183354949</v>
+        <v>0.37450431183354899</v>
       </c>
       <c r="K4">
-        <v>0.40071737204816749</v>
+        <v>0.40071737204816699</v>
       </c>
       <c r="L4">
-        <v>0.42414044757637459</v>
+        <v>0.42414044757637498</v>
       </c>
       <c r="M4">
-        <v>0.4450975712321712</v>
+        <v>0.44509757123217097</v>
       </c>
       <c r="N4">
-        <v>0.4638687499285874</v>
+        <v>0.46386874992858701</v>
       </c>
       <c r="O4">
-        <v>0.48069689343488331</v>
+        <v>0.48069689343488298</v>
       </c>
       <c r="P4">
         <v>0.49579413097378799</v>
       </c>
       <c r="Q4">
-        <v>0.50934619006711979</v>
+        <v>0.50934619006712001</v>
       </c>
       <c r="R4">
-        <v>0.52151662620855221</v>
+        <v>0.52151662620855199</v>
       </c>
       <c r="S4">
-        <v>0.53244968839792994</v>
+        <v>0.53244968839793005</v>
       </c>
       <c r="T4">
-        <v>0.54227325455458675</v>
+        <v>0.54227325455458697</v>
       </c>
       <c r="U4">
-        <v>0.55110076343850345</v>
+        <v>0.55110076343850301</v>
       </c>
       <c r="V4">
-        <v>0.55903330247304028</v>
+        <v>0.55903330247303995</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3076,64 +3076,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.5872711300588591E-2</v>
+        <v>-7.5872711300588605E-2</v>
       </c>
       <c r="D5">
-        <v>-0.15087826937581422</v>
+        <v>-0.150878269375814</v>
       </c>
       <c r="E5">
-        <v>-0.22492088250477663</v>
+        <v>-0.22492088250477699</v>
       </c>
       <c r="F5">
-        <v>-0.29790200965851632</v>
+        <v>-0.29790200965851599</v>
       </c>
       <c r="G5">
-        <v>-0.36972230676685075</v>
+        <v>-0.36972230676685103</v>
       </c>
       <c r="H5">
-        <v>-0.44028333831074823</v>
+        <v>-0.44028333831074801</v>
       </c>
       <c r="I5">
-        <v>-0.50948895479756284</v>
+        <v>-0.50948895479756295</v>
       </c>
       <c r="J5">
-        <v>-0.57724663616967831</v>
+        <v>-0.57724663616967797</v>
       </c>
       <c r="K5">
-        <v>-0.64346843234649465</v>
+        <v>-0.64346843234649498</v>
       </c>
       <c r="L5">
-        <v>-0.70807205071532975</v>
+        <v>-0.70807205071532997</v>
       </c>
       <c r="M5">
-        <v>-0.77098145630071846</v>
+        <v>-0.77098145630071802</v>
       </c>
       <c r="N5">
-        <v>-0.83212776306251213</v>
+        <v>-0.83212776306251202</v>
       </c>
       <c r="O5">
-        <v>-0.89144954959312661</v>
+        <v>-0.89144954959312706</v>
       </c>
       <c r="P5">
-        <v>-0.94889357382973882</v>
+        <v>-0.94889357382973905</v>
       </c>
       <c r="Q5">
-        <v>-1.0044148323119344</v>
+        <v>-1.00441483231193</v>
       </c>
       <c r="R5">
-        <v>-1.0579770957706158</v>
+        <v>-1.05797709577062</v>
       </c>
       <c r="S5">
-        <v>-1.1095527273632235</v>
+        <v>-1.10955272736322</v>
       </c>
       <c r="T5">
-        <v>-1.1591230311277145</v>
+        <v>-1.1591230311277101</v>
       </c>
       <c r="U5">
-        <v>-1.2066778449433786</v>
+        <v>-1.2066778449433799</v>
       </c>
       <c r="V5">
-        <v>-1.2522156798565249</v>
+        <v>-1.25221567985652</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_2_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_2_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\old_grnmap\GRNmap\GRNmap-7d\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,12 +30,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -893,64 +893,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.100505129263562</v>
+        <v>-0.10050512926356203</v>
       </c>
       <c r="D2">
-        <v>-0.19834405788669901</v>
+        <v>-0.19834405788669912</v>
       </c>
       <c r="E2">
-        <v>-0.29340906240386</v>
+        <v>-0.29340906240385961</v>
       </c>
       <c r="F2">
-        <v>-0.385600085671084</v>
+        <v>-0.38560008567108428</v>
       </c>
       <c r="G2">
         <v>-0.47482351698355801</v>
       </c>
       <c r="H2">
-        <v>-0.56099644945406302</v>
+        <v>-0.56099644945406291</v>
       </c>
       <c r="I2">
-        <v>-0.64404530869544696</v>
+        <v>-0.64404530869544718</v>
       </c>
       <c r="J2">
-        <v>-0.72390971330379295</v>
+        <v>-0.72390971330379306</v>
       </c>
       <c r="K2">
-        <v>-0.80054100195532396</v>
+        <v>-0.80054100195532374</v>
       </c>
       <c r="L2">
-        <v>-0.87390553138284499</v>
+        <v>-0.87390553138284532</v>
       </c>
       <c r="M2">
-        <v>-0.94398296526172498</v>
+        <v>-0.94398296526172532</v>
       </c>
       <c r="N2">
-        <v>-1.01076888461194</v>
+        <v>-1.0107688846119385</v>
       </c>
       <c r="O2">
-        <v>-1.07427275254133</v>
+        <v>-1.0742727525413274</v>
       </c>
       <c r="P2">
-        <v>-1.13451978199822</v>
+        <v>-1.1345197819982227</v>
       </c>
       <c r="Q2">
-        <v>-1.1915485631373599</v>
+        <v>-1.191548563137357</v>
       </c>
       <c r="R2">
-        <v>-1.2454122172762201</v>
+        <v>-1.2454122172762241</v>
       </c>
       <c r="S2">
-        <v>-1.2961757499725399</v>
+        <v>-1.2961757499725359</v>
       </c>
       <c r="T2">
-        <v>-1.34391659732978</v>
+        <v>-1.343916597329778</v>
       </c>
       <c r="U2">
-        <v>-1.3887218280870399</v>
+        <v>-1.3887218280870377</v>
       </c>
       <c r="V2">
-        <v>-1.4306881675515799</v>
+        <v>-1.4306881675515821</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -961,52 +961,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.2563430880209506E-2</v>
+        <v>-6.2563430880209492E-2</v>
       </c>
       <c r="D3">
-        <v>-0.121942196032234</v>
+        <v>-0.12194219603223373</v>
       </c>
       <c r="E3">
-        <v>-0.17817484000902101</v>
+        <v>-0.17817484000902054</v>
       </c>
       <c r="F3">
-        <v>-0.23131360178487601</v>
+        <v>-0.23131360178487614</v>
       </c>
       <c r="G3">
-        <v>-0.28142203428009199</v>
+        <v>-0.28142203428009183</v>
       </c>
       <c r="H3">
-        <v>-0.32857550865153001</v>
+        <v>-0.32857550865153023</v>
       </c>
       <c r="I3">
-        <v>-0.37285857199792699</v>
+        <v>-0.37285857199792677</v>
       </c>
       <c r="J3">
-        <v>-0.41436503376870598</v>
+        <v>-0.4143650337687057</v>
       </c>
       <c r="K3">
-        <v>-0.45319532677882202</v>
+        <v>-0.45319532677882152</v>
       </c>
       <c r="L3">
-        <v>-0.48945634031587998</v>
+        <v>-0.48945634031588009</v>
       </c>
       <c r="M3">
-        <v>-0.523258924025644</v>
+        <v>-0.52325892402564422</v>
       </c>
       <c r="N3">
         <v>-0.55471761946489395</v>
       </c>
       <c r="O3">
-        <v>-0.58394841907113904</v>
+        <v>-0.58394841907113948</v>
       </c>
       <c r="P3">
-        <v>-0.61106851471502299</v>
+        <v>-0.6110685147150231</v>
       </c>
       <c r="Q3">
-        <v>-0.63619438324557898</v>
+        <v>-0.63619438324557942</v>
       </c>
       <c r="R3">
-        <v>-0.65944162872269396</v>
+        <v>-0.65944162872269385</v>
       </c>
       <c r="S3">
         <v>-0.68092342328542799</v>
@@ -1015,10 +1015,10 @@
         <v>-0.70075047952230696</v>
       </c>
       <c r="U3">
-        <v>-0.71902983911097695</v>
+        <v>-0.71902983911097706</v>
       </c>
       <c r="V3">
-        <v>-0.73586495193694901</v>
+        <v>-0.7358649519369489</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1097,64 +1097,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-4.7022146758660101E-2</v>
+        <v>-4.7022146758660094E-2</v>
       </c>
       <c r="D5">
-        <v>-9.1625362398053495E-2</v>
+        <v>-9.1625362398053536E-2</v>
       </c>
       <c r="E5">
-        <v>-0.13386811362525999</v>
+        <v>-0.13386811362525997</v>
       </c>
       <c r="F5">
         <v>-0.17381454554897499</v>
       </c>
       <c r="G5">
-        <v>-0.21153316074412501</v>
+        <v>-0.21153316074412534</v>
       </c>
       <c r="H5">
-        <v>-0.247096875996171</v>
+        <v>-0.24709687599617092</v>
       </c>
       <c r="I5">
-        <v>-0.28058166705152698</v>
+        <v>-0.28058166705152682</v>
       </c>
       <c r="J5">
-        <v>-0.31206651134777003</v>
+        <v>-0.31206651134776958</v>
       </c>
       <c r="K5">
-        <v>-0.34163211252827203</v>
+        <v>-0.34163211252827186</v>
       </c>
       <c r="L5">
-        <v>-0.36936079514529102</v>
+        <v>-0.36936079514529135</v>
       </c>
       <c r="M5">
-        <v>-0.39533535331757402</v>
+        <v>-0.39533535331757413</v>
       </c>
       <c r="N5">
-        <v>-0.41963894833299098</v>
+        <v>-0.41963894833299137</v>
       </c>
       <c r="O5">
-        <v>-0.442354109951554</v>
+        <v>-0.44235410995155416</v>
       </c>
       <c r="P5">
-        <v>-0.463562670924689</v>
+        <v>-0.46356267092468906</v>
       </c>
       <c r="Q5">
-        <v>-0.48334493337696</v>
+        <v>-0.48334493337696027</v>
       </c>
       <c r="R5">
-        <v>-0.50177965841211203</v>
+        <v>-0.50177965841211214</v>
       </c>
       <c r="S5">
-        <v>-0.51894339617907304</v>
+        <v>-0.51894339617907326</v>
       </c>
       <c r="T5">
-        <v>-0.53491053581716497</v>
+        <v>-0.53491053581716475</v>
       </c>
       <c r="U5">
-        <v>-0.54975278752565504</v>
+        <v>-0.54975278752565537</v>
       </c>
       <c r="V5">
-        <v>-0.56353927517244495</v>
+        <v>-0.56353927517244506</v>
       </c>
     </row>
   </sheetData>
@@ -1194,10 +1194,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.35873611648520398</v>
+        <v>0.35873611648520443</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.22186346654710801</v>
+        <v>0.22186346654710765</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.71097062489047802</v>
+        <v>0.71097062489047824</v>
       </c>
       <c r="E4">
-        <v>0.45116763142101601</v>
+        <v>0.45116763142101562</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.80309601773064099</v>
+        <v>-0.80309601773064054</v>
       </c>
       <c r="E5">
-        <v>0.68816416093215005</v>
+        <v>0.68816416093215038</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1485,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>8.4331063200504097E-4</v>
+        <v>8.4331063200504108E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.33424659770744303</v>
+        <v>0.33424659770744269</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1501,7 +1501,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639599E-33</v>
+        <v>1.2133358649639586E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1533,10 +1533,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>4.0499531818184698E-4</v>
+        <v>4.0499531818184731E-4</v>
       </c>
       <c r="C8">
-        <v>8.0999063636369504E-4</v>
+        <v>8.0999063636369461E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1544,10 +1544,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>5.0495439213537702E-5</v>
+        <v>5.0495439213537715E-5</v>
       </c>
       <c r="C9">
-        <v>1.00990878427075E-4</v>
+        <v>1.0099087842707543E-4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.1418383383765499E-3</v>
+        <v>1.1418383383765488E-3</v>
       </c>
       <c r="C10">
-        <v>1.1418383383765499E-3</v>
+        <v>1.1418383383765488E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1566,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>8.7606418590646196E-4</v>
+        <v>8.7606418590646207E-4</v>
       </c>
       <c r="C11">
-        <v>6.0429622140810799E-3</v>
+        <v>6.0429622140810756E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +1713,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -1765,40 +1765,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1806,40 +1806,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="10">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="D4" s="11">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1888,40 +1888,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1964,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -2017,40 +2017,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2058,40 +2058,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2140,40 +2140,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2420,7 +2420,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="22">
-        <v>0.10299999999999999</v>
+        <v>0.10292276543278124</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="22">
-        <v>0.111</v>
+        <v>0.1108920147899017</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="22">
-        <v>0.434</v>
+        <v>0.43412222889076013</v>
       </c>
       <c r="E4" s="22">
-        <v>0.28100000000000003</v>
+        <v>0.28122076702034365</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2477,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <v>-0.32400000000000001</v>
+        <v>-0.32423254717519595</v>
       </c>
       <c r="E5" s="22">
-        <v>0.14299999999999999</v>
+        <v>0.14288019968408103</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2507,7 +2507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -2662,7 +2662,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2671,10 +2671,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2689,13 +2689,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2704,13 +2704,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2872,64 +2872,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.100505129263562</v>
+        <v>-0.10050512926356203</v>
       </c>
       <c r="D2">
-        <v>-0.19834405788669901</v>
+        <v>-0.19834405788669912</v>
       </c>
       <c r="E2">
-        <v>-0.29340906240386</v>
+        <v>-0.29340906240385961</v>
       </c>
       <c r="F2">
-        <v>-0.385600085671084</v>
+        <v>-0.38560008567108428</v>
       </c>
       <c r="G2">
         <v>-0.47482351698355801</v>
       </c>
       <c r="H2">
-        <v>-0.56099644945406302</v>
+        <v>-0.56099644945406291</v>
       </c>
       <c r="I2">
-        <v>-0.64404530869544696</v>
+        <v>-0.64404530869544718</v>
       </c>
       <c r="J2">
-        <v>-0.72390971330379295</v>
+        <v>-0.72390971330379306</v>
       </c>
       <c r="K2">
-        <v>-0.80054100195532396</v>
+        <v>-0.80054100195532374</v>
       </c>
       <c r="L2">
-        <v>-0.87390553138284499</v>
+        <v>-0.87390553138284532</v>
       </c>
       <c r="M2">
-        <v>-0.94398296526172498</v>
+        <v>-0.94398296526172532</v>
       </c>
       <c r="N2">
-        <v>-1.01076888461194</v>
+        <v>-1.0107688846119385</v>
       </c>
       <c r="O2">
-        <v>-1.07427275254133</v>
+        <v>-1.0742727525413274</v>
       </c>
       <c r="P2">
-        <v>-1.13451978199822</v>
+        <v>-1.1345197819982227</v>
       </c>
       <c r="Q2">
-        <v>-1.1915485631373599</v>
+        <v>-1.191548563137357</v>
       </c>
       <c r="R2">
-        <v>-1.2454122172762201</v>
+        <v>-1.2454122172762241</v>
       </c>
       <c r="S2">
-        <v>-1.2961757499725399</v>
+        <v>-1.2961757499725359</v>
       </c>
       <c r="T2">
-        <v>-1.34391659732978</v>
+        <v>-1.343916597329778</v>
       </c>
       <c r="U2">
-        <v>-1.3887218280870399</v>
+        <v>-1.3887218280870377</v>
       </c>
       <c r="V2">
-        <v>-1.4306881675515799</v>
+        <v>-1.4306881675515821</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2940,52 +2940,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.2563430880209506E-2</v>
+        <v>-6.2563430880209492E-2</v>
       </c>
       <c r="D3">
-        <v>-0.121942196032234</v>
+        <v>-0.12194219603223373</v>
       </c>
       <c r="E3">
-        <v>-0.17817484000902101</v>
+        <v>-0.17817484000902054</v>
       </c>
       <c r="F3">
-        <v>-0.23131360178487601</v>
+        <v>-0.23131360178487614</v>
       </c>
       <c r="G3">
-        <v>-0.28142203428009199</v>
+        <v>-0.28142203428009183</v>
       </c>
       <c r="H3">
-        <v>-0.32857550865153001</v>
+        <v>-0.32857550865153023</v>
       </c>
       <c r="I3">
-        <v>-0.37285857199792699</v>
+        <v>-0.37285857199792677</v>
       </c>
       <c r="J3">
-        <v>-0.41436503376870598</v>
+        <v>-0.4143650337687057</v>
       </c>
       <c r="K3">
-        <v>-0.45319532677882202</v>
+        <v>-0.45319532677882152</v>
       </c>
       <c r="L3">
-        <v>-0.48945634031587998</v>
+        <v>-0.48945634031588009</v>
       </c>
       <c r="M3">
-        <v>-0.523258924025644</v>
+        <v>-0.52325892402564422</v>
       </c>
       <c r="N3">
         <v>-0.55471761946489395</v>
       </c>
       <c r="O3">
-        <v>-0.58394841907113904</v>
+        <v>-0.58394841907113948</v>
       </c>
       <c r="P3">
-        <v>-0.61106851471502299</v>
+        <v>-0.6110685147150231</v>
       </c>
       <c r="Q3">
-        <v>-0.63619438324557898</v>
+        <v>-0.63619438324557942</v>
       </c>
       <c r="R3">
-        <v>-0.65944162872269396</v>
+        <v>-0.65944162872269385</v>
       </c>
       <c r="S3">
         <v>-0.68092342328542799</v>
@@ -2994,10 +2994,10 @@
         <v>-0.70075047952230696</v>
       </c>
       <c r="U3">
-        <v>-0.71902983911097695</v>
+        <v>-0.71902983911097706</v>
       </c>
       <c r="V3">
-        <v>-0.73586495193694901</v>
+        <v>-0.7358649519369489</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -3008,64 +3008,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.0438086846898201E-2</v>
+        <v>7.0438086846898229E-2</v>
       </c>
       <c r="D4">
-        <v>0.13186262681347799</v>
+        <v>0.13186262681347771</v>
       </c>
       <c r="E4">
-        <v>0.18570768338914501</v>
+        <v>0.18570768338914456</v>
       </c>
       <c r="F4">
-        <v>0.233114144978528</v>
+        <v>0.23311414497852756</v>
       </c>
       <c r="G4">
-        <v>0.275003565581591</v>
+        <v>0.27500356558159122</v>
       </c>
       <c r="H4">
-        <v>0.31213133058944698</v>
+        <v>0.31213133058944742</v>
       </c>
       <c r="I4">
-        <v>0.34512336498950802</v>
+        <v>0.34512336498950824</v>
       </c>
       <c r="J4">
-        <v>0.37450431183354899</v>
+        <v>0.37450431183354949</v>
       </c>
       <c r="K4">
-        <v>0.40071737204816699</v>
+        <v>0.40071737204816749</v>
       </c>
       <c r="L4">
-        <v>0.42414044757637498</v>
+        <v>0.42414044757637459</v>
       </c>
       <c r="M4">
-        <v>0.44509757123217097</v>
+        <v>0.4450975712321712</v>
       </c>
       <c r="N4">
-        <v>0.46386874992858701</v>
+        <v>0.4638687499285874</v>
       </c>
       <c r="O4">
-        <v>0.48069689343488298</v>
+        <v>0.48069689343488331</v>
       </c>
       <c r="P4">
         <v>0.49579413097378799</v>
       </c>
       <c r="Q4">
-        <v>0.50934619006712001</v>
+        <v>0.50934619006711979</v>
       </c>
       <c r="R4">
-        <v>0.52151662620855199</v>
+        <v>0.52151662620855221</v>
       </c>
       <c r="S4">
-        <v>0.53244968839793005</v>
+        <v>0.53244968839792994</v>
       </c>
       <c r="T4">
-        <v>0.54227325455458697</v>
+        <v>0.54227325455458675</v>
       </c>
       <c r="U4">
-        <v>0.55110076343850301</v>
+        <v>0.55110076343850345</v>
       </c>
       <c r="V4">
-        <v>0.55903330247303995</v>
+        <v>0.55903330247304028</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3076,64 +3076,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.5872711300588605E-2</v>
+        <v>-7.5872711300588591E-2</v>
       </c>
       <c r="D5">
-        <v>-0.150878269375814</v>
+        <v>-0.15087826937581422</v>
       </c>
       <c r="E5">
-        <v>-0.22492088250477699</v>
+        <v>-0.22492088250477663</v>
       </c>
       <c r="F5">
-        <v>-0.29790200965851599</v>
+        <v>-0.29790200965851632</v>
       </c>
       <c r="G5">
-        <v>-0.36972230676685103</v>
+        <v>-0.36972230676685075</v>
       </c>
       <c r="H5">
-        <v>-0.44028333831074801</v>
+        <v>-0.44028333831074823</v>
       </c>
       <c r="I5">
-        <v>-0.50948895479756295</v>
+        <v>-0.50948895479756284</v>
       </c>
       <c r="J5">
-        <v>-0.57724663616967797</v>
+        <v>-0.57724663616967831</v>
       </c>
       <c r="K5">
-        <v>-0.64346843234649498</v>
+        <v>-0.64346843234649465</v>
       </c>
       <c r="L5">
-        <v>-0.70807205071532997</v>
+        <v>-0.70807205071532975</v>
       </c>
       <c r="M5">
-        <v>-0.77098145630071802</v>
+        <v>-0.77098145630071846</v>
       </c>
       <c r="N5">
-        <v>-0.83212776306251202</v>
+        <v>-0.83212776306251213</v>
       </c>
       <c r="O5">
-        <v>-0.89144954959312706</v>
+        <v>-0.89144954959312661</v>
       </c>
       <c r="P5">
-        <v>-0.94889357382973905</v>
+        <v>-0.94889357382973882</v>
       </c>
       <c r="Q5">
-        <v>-1.00441483231193</v>
+        <v>-1.0044148323119344</v>
       </c>
       <c r="R5">
-        <v>-1.05797709577062</v>
+        <v>-1.0579770957706158</v>
       </c>
       <c r="S5">
-        <v>-1.10955272736322</v>
+        <v>-1.1095527273632235</v>
       </c>
       <c r="T5">
-        <v>-1.1591230311277101</v>
+        <v>-1.1591230311277145</v>
       </c>
       <c r="U5">
-        <v>-1.2066778449433799</v>
+        <v>-1.2066778449433786</v>
       </c>
       <c r="V5">
-        <v>-1.25221567985652</v>
+        <v>-1.2522156798565249</v>
       </c>
     </row>
   </sheetData>
